--- a/data/output/FV2410_FV2404/UTILMD/44142.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44142.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5684" uniqueCount="435">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5705" uniqueCount="435">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1419,6 +1419,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U245" totalsRowShown="0">
+  <autoFilter ref="A1:U245"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1708,7 +1738,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13778,5 +13811,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/44142.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44142.xlsx
@@ -2558,7 +2558,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5096,7 +5096,7 @@
         <v>413</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5262,7 +5262,7 @@
         <v>414</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5536,7 +5536,7 @@
         <v>413</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6132,7 +6132,7 @@
         <v>417</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -6344,7 +6344,7 @@
         <v>417</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6564,7 +6564,7 @@
         <v>417</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6838,7 +6838,7 @@
         <v>420</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -7058,7 +7058,7 @@
         <v>417</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7278,7 +7278,7 @@
         <v>417</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7490,7 +7490,7 @@
         <v>417</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7760,7 +7760,7 @@
         <v>423</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7906,7 +7906,7 @@
         <v>417</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -8106,7 +8106,7 @@
         <v>417</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -8660,7 +8660,7 @@
         <v>417</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -9024,7 +9024,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -9458,7 +9458,7 @@
         <v>425</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9824,7 +9824,7 @@
         <v>427</v>
       </c>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -10236,7 +10236,7 @@
         <v>428</v>
       </c>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10538,7 +10538,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -11226,7 +11226,7 @@
         <v>428</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11630,7 +11630,7 @@
         <v>432</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -11778,7 +11778,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11938,7 +11938,7 @@
         <v>417</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12086,7 +12086,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -12512,7 +12512,7 @@
         <v>417</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -12816,7 +12816,7 @@
         <v>433</v>
       </c>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -13128,7 +13128,7 @@
         <v>433</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -13660,7 +13660,7 @@
         <v>433</v>
       </c>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -14192,7 +14192,7 @@
         <v>433</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -14724,7 +14724,7 @@
         <v>417</v>
       </c>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -15144,7 +15144,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N243" s="2"/>
